--- a/Analisis-contenido-competencia (10-11-2022).xlsx
+++ b/Analisis-contenido-competencia (10-11-2022).xlsx
@@ -526,11 +526,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,9 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -572,6 +564,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -825,56 +825,56 @@
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="54.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>87</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M4" s="4"/>
@@ -890,184 +890,184 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" ht="73.5" customHeight="1">
-      <c r="B5" s="11"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B7" s="11"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B8" s="11"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B9" s="11"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B10" s="12"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1076,108 +1076,108 @@
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>44874</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <v>44371</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="19">
         <v>44874</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="21">
         <v>44875</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <v>44873</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B12" s="11"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6">
         <v>3000</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>1697</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>108</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="16">
         <v>272</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <v>1935</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <v>328</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B13" s="11"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="54.75" customHeight="1">
-      <c r="B14" s="12"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="56.25" customHeight="1">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1186,103 +1186,103 @@
       <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="24">
         <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="58.5" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>3352</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <v>566</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="16">
         <v>4856</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <v>46211</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="16">
         <v>3637</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="22">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="63" customHeight="1">
-      <c r="B17" s="11"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="63" customHeight="1">
-      <c r="B18" s="12"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="22" t="s">
         <v>95</v>
       </c>
     </row>
